--- a/nlp/scripts/raw_data.xlsx
+++ b/nlp/scripts/raw_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>We why Reports tests (Cleaning Jobs)</t>
+          <t>Reports tests (Cleaning Jobs)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>we Robot tests (Assigning) studying Assigning Assigning</t>
+          <t>Running Robot tests (Assigning) studying Assigning generously</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4324,27 +4324,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>No Operators.cy.js</t>
+          <t>All Operators.cy.js</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>No Operators</t>
+          <t>All Operators</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Robot tests (Assign)</t>
+          <t>Assign all operators for the remaining users</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Assign/No Operators.cy.js</t>
+          <t>test files/Automation Tests/Robot/Assign/All Operators.cy.js</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Assign no operators</t>
+          <t>Robot tests (Assign)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4378,27 +4378,27 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pagination.cy.js</t>
+          <t>No Operators.cy.js</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pagination</t>
+          <t>No Operators</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Robot tests (Assign)</t>
+          <t>Assign no operators</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Assign/Pagination.cy.js</t>
+          <t>test files/Automation Tests/Robot/Assign/No Operators.cy.js</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Validate robot page pagination</t>
+          <t>Robot tests (Assign)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4432,27 +4432,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Search.cy.js</t>
+          <t>Pagination.cy.js</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Pagination</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Robot tests (Assign)</t>
+          <t>Validate robot page pagination</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Assign/Search.cy.js</t>
+          <t>test files/Automation Tests/Robot/Assign/Pagination.cy.js</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Assign users page search filter</t>
+          <t>Robot tests (Assign)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4486,27 +4486,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Some Operators.cy.js</t>
+          <t>Search.cy.js</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Some Operators</t>
+          <t>Search</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Robot tests (Assign)</t>
+          <t>Assign users page search filter</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Assign/Some Operators.cy.js</t>
+          <t>test files/Automation Tests/Robot/Assign/Search.cy.js</t>
         </is>
       </c>
     </row>
@@ -4523,12 +4523,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Assign some operators</t>
+          <t>Robot tests (Assign)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4540,27 +4540,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>User Save Retention.cy.js</t>
+          <t>Some Operators.cy.js</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>User Save Retention</t>
+          <t>Some Operators</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Robot tests (Assign)</t>
+          <t>Assign some operators</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Assign/User Save Retention.cy.js</t>
+          <t>test files/Automation Tests/Robot/Assign/Some Operators.cy.js</t>
         </is>
       </c>
     </row>
@@ -4577,12 +4577,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Assign users, save and then go back to assign users page to ensure it is still saved</t>
+          <t>Robot tests (Assign)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4594,27 +4594,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Input Dependency.cy.js</t>
+          <t>User Save Retention.cy.js</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Input Dependency</t>
+          <t>User Save Retention</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Robot tests (Create)</t>
+          <t>Assign users, save and then go back to assign users page to ensure it is still saved</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Input Dependency.cy.js</t>
+          <t>test files/Automation Tests/Robot/Assign/User Save Retention.cy.js</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Validate robot type cannot selection container is empty without robot family input</t>
+          <t>Robot tests (Create)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4648,27 +4648,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Invalid Date Input.cy.js</t>
+          <t>Input Dependency.cy.js</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Invalid Date Input</t>
+          <t>Input Dependency</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Robot tests (Create)</t>
+          <t>Validate robot type cannot selection container is empty without robot family input</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Invalid Date Input.cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Input Dependency.cy.js</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4685,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Validate cannot select dates that are after today\</t>
+          <t>Robot tests (Create)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4702,39 +4702,39 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Invalid Inputs.cy.js</t>
+          <t>Invalid Date Input.cy.js</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Invalid Inputs</t>
+          <t>Invalid Date Input</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Robot tests (Create)</t>
+          <t>Validate cannot select dates that are after today\</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Invalid Inputs.cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Invalid Date Input.cy.js</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Successful Create (LeoBot).cy.js</t>
+          <t>Invalid Inputs.cy.js</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Successful Create (LeoBot)</t>
+          <t>Invalid Inputs</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4749,19 +4749,19 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Successful Create (LeoBot).cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Invalid Inputs.cy.js</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Successful Create (LeoRay).cy.js</t>
+          <t>Successful Create (LeoBot).cy.js</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Successful Create (LeoRay)</t>
+          <t>Successful Create (LeoBot)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Successful Create (LeoRay).cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Successful Create (LeoBot).cy.js</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Successful Create (R3).cy.js</t>
+          <t>Successful Create (LeoRay).cy.js</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Successful Create (R3)</t>
+          <t>Successful Create (LeoRay)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4803,19 +4803,19 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Successful Create (R3).cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Successful Create (LeoRay).cy.js</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Successful Create (Rex).cy.js</t>
+          <t>Successful Create (R3).cy.js</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Successful Create (Rex)</t>
+          <t>Successful Create (R3)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4830,19 +4830,19 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Successful Create (Rex).cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Successful Create (R3).cy.js</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Unsuccessful Create.cy.js</t>
+          <t>Successful Create (Rex).cy.js</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Unsuccessful Create</t>
+          <t>Successful Create (Rex)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Create/Unsuccessful Create.cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Successful Create (Rex).cy.js</t>
         </is>
       </c>
     </row>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Validate unable to create different robot types from the same family with the same serial no. in bulk submission</t>
+          <t>Robot tests (Create)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Validate unable to create same robot types from the same family with the same serial no. in bulk submission</t>
+          <t>Validate unable to create different robot types from the same family with the same serial no. in bulk submission</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4918,39 +4918,39 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Robot (Delete).cy.js</t>
+          <t>Unsuccessful Create.cy.js</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Robot (Delete)</t>
+          <t>Unsuccessful Create</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Robot tests (Create)</t>
+          <t>Validate unable to create same robot types from the same family with the same serial no. in bulk submission</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Delete/Robot (Delete).cy.js</t>
+          <t>test files/Automation Tests/Robot/Create/Unsuccessful Create.cy.js</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Robot (Download Certificate).cy.js</t>
+          <t>Robot (Delete).cy.js</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Robot (Download Certificate)</t>
+          <t>Robot (Delete)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4960,24 +4960,24 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Robot certificate download test (All robot types): LB Super Admin</t>
+          <t>Robot tests (Create)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Download/Robot (Download Certificate).cy.js</t>
+          <t>test files/Automation Tests/Robot/Delete/Robot (Delete).cy.js</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Map Level Equalizer Config.cy.js</t>
+          <t>Robot (Download Certificate).cy.js</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Map Level Equalizer Config</t>
+          <t>Robot (Download Certificate)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Robot tests (Update configs)(LeoBot)</t>
+          <t>Robot certificate download test (All robot types): LB Super Admin</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Leobot/Map Level Equalizer Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Download/Robot (Download Certificate).cy.js</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>leobot map settings, select first map, for each tab change all sliders move to another tab and return to check the slider value remains updated</t>
+          <t>Robot tests (Update configs)(LeoBot)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>map level equalizer</t>
+          <t>leobot map settings, select first map, for each tab change all sliders move to another tab and return to check the slider value remains updated</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5053,27 +5053,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Page Elements.cy.js</t>
+          <t>Map Level Equalizer Config.cy.js</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Page Elements</t>
+          <t>Map Level Equalizer Config</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Robot tests (Update configs)(LeoBot)</t>
+          <t>map level equalizer</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Leobot/Page Elements.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Leobot/Map Level Equalizer Config.cy.js</t>
         </is>
       </c>
     </row>
@@ -5090,12 +5090,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Validate LeoBot page elements</t>
+          <t>Robot tests (Update configs)(LeoBot)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5107,39 +5107,39 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Personality Config.cy.js</t>
+          <t>Page Elements.cy.js</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Personality Config</t>
+          <t>Page Elements</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Robot tests (Update configs)(LeoBot)</t>
+          <t>Validate LeoBot page elements</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Leobot/Personality Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Leobot/Page Elements.cy.js</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Robot Config.cy.js</t>
+          <t>Personality Config.cy.js</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Robot Config</t>
+          <t>Personality Config</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Leobot/Robot Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Leobot/Personality Config.cy.js</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Zone Level Equalizer Config.cy.js</t>
+          <t>Robot Config.cy.js</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Zone Level Equalizer Config</t>
+          <t>Robot Config</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Leobot/Zone Level Equalizer Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Leobot/Robot Config.cy.js</t>
         </is>
       </c>
     </row>
@@ -5198,12 +5198,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Zone level equalizer elements for Leobot</t>
+          <t>Robot tests (Update configs)(LeoBot)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5215,27 +5215,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Page Elements.cy.js</t>
+          <t>Zone Level Equalizer Config.cy.js</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Page Elements</t>
+          <t>Zone Level Equalizer Config</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Robot tests (Update configs)(R3)</t>
+          <t>Zone level equalizer elements for Leobot</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/R3/Page Elements.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Leobot/Zone Level Equalizer Config.cy.js</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Validate R3 page elements</t>
+          <t>Robot tests (Update configs)(R3)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5269,39 +5269,39 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Robot Config.cy.js</t>
+          <t>Page Elements.cy.js</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Robot Config</t>
+          <t>Page Elements</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Robot tests (Update configs)(R3)</t>
+          <t>Validate R3 page elements</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/R3/Robot Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/R3/Page Elements.cy.js</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Zone Level Equalizer Config.cy.js</t>
+          <t>Robot Config.cy.js</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Zone Level Equalizer Config</t>
+          <t>Robot Config</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/R3/Zone Level Equalizer Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/R3/Robot Config.cy.js</t>
         </is>
       </c>
     </row>
@@ -5333,12 +5333,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Zone level equalizer elements for R3</t>
+          <t>Robot tests (Update configs)(R3)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5350,27 +5350,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Page Elements.cy.js</t>
+          <t>Zone Level Equalizer Config.cy.js</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Page Elements</t>
+          <t>Zone Level Equalizer Config</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Robot tests (Update configs)(Rex)</t>
+          <t>Zone level equalizer elements for R3</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Rex/Page Elements.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/R3/Zone Level Equalizer Config.cy.js</t>
         </is>
       </c>
     </row>
@@ -5387,12 +5387,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Validate Rex page elements</t>
+          <t>Robot tests (Update configs)(Rex)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5404,39 +5404,39 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Robot Config.cy.js</t>
+          <t>Page Elements.cy.js</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Robot Config</t>
+          <t>Page Elements</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Robot tests (Update configs)(Rex)</t>
+          <t>Validate Rex page elements</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Rex/Robot Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Rex/Page Elements.cy.js</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Zone Level Equalizer Config.cy.js</t>
+          <t>Robot Config.cy.js</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Zone Level Equalizer Config</t>
+          <t>Robot Config</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Config/Rex/Zone Level Equalizer Config.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Rex/Robot Config.cy.js</t>
         </is>
       </c>
     </row>
@@ -5468,12 +5468,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Zone level equalizer elements for Rex</t>
+          <t>Robot tests (Update configs)(Rex)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5485,39 +5485,39 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Robot (Update Info).cy.js</t>
+          <t>Zone Level Equalizer Config.cy.js</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Robot (Update Info)</t>
+          <t>Zone Level Equalizer Config</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Robot tests (Update info)</t>
+          <t>Zone level equalizer elements for Rex</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/Update Info/Robot (Update Info).cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Config/Rex/Zone Level Equalizer Config.cy.js</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ascending Order.cy.js</t>
+          <t>Robot (Update Info).cy.js</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ascending Order</t>
+          <t>Robot (Update Info)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5527,24 +5527,24 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Robot tests (View)</t>
+          <t>Robot tests (Update info)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/Ascending Order.cy.js</t>
+          <t>test files/Automation Tests/Robot/Update Info/Robot (Update Info).cy.js</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Column Headers.cy.js</t>
+          <t>Ascending Order.cy.js</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Column Headers</t>
+          <t>Ascending Order</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/Column Headers.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/Ascending Order.cy.js</t>
         </is>
       </c>
     </row>
@@ -5576,12 +5576,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Validate "Details" and "More" on robot page column headers</t>
+          <t>Robot tests (View)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5593,39 +5593,39 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Descending Order.cy.js</t>
+          <t>Column Headers.cy.js</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Descending Order</t>
+          <t>Column Headers</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Robot tests (View)</t>
+          <t>Validate "Details" and "More" on robot page column headers</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/Descending Order.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/Column Headers.cy.js</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>General.cy.js</t>
+          <t>Descending Order.cy.js</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Descending Order</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5640,19 +5640,19 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/General.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/Descending Order.cy.js</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Page Elements.cy.js</t>
+          <t>General.cy.js</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Page Elements</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/Page Elements.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/General.cy.js</t>
         </is>
       </c>
     </row>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Validate robot page elements</t>
+          <t>Robot tests (View)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5701,27 +5701,27 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Pagination.cy.js</t>
+          <t>Page Elements.cy.js</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pagination</t>
+          <t>Page Elements</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Robot tests (View)</t>
+          <t>Validate robot page elements</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/Pagination.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/Page Elements.cy.js</t>
         </is>
       </c>
     </row>
@@ -5738,12 +5738,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Validate robot page pagination</t>
+          <t>Robot tests (View)</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5755,27 +5755,27 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Search.cy.js</t>
+          <t>Pagination.cy.js</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Pagination</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Robot tests (View)</t>
+          <t>Validate robot page pagination</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/Search.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/Pagination.cy.js</t>
         </is>
       </c>
     </row>
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Search for robot types</t>
+          <t>Robot tests (View)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5809,39 +5809,39 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>State Color.cy.js</t>
+          <t>Search.cy.js</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>State Color</t>
+          <t>Search</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Robot tests (View)</t>
+          <t>Search for robot types</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/State Color.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/Search.cy.js</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>State Order.cy.js</t>
+          <t>State Color.cy.js</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>State Order</t>
+          <t>State Color</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5856,34 +5856,34 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Robot/View/State Order.cy.js</t>
+          <t>test files/Automation Tests/Robot/View/State Color.cy.js</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Schedule (LeoBot)(DISABLED).cy</t>
+          <t>State Order.cy.js</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Schedule (LeoBot)(DISABLED)</t>
+          <t>State Order</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>create another non repeating schedule and edit and delete it</t>
+          <t>Robot tests (View)</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Schedule/Schedule (LeoBot)(DISABLED).cy</t>
+          <t>test files/Automation Tests/Robot/View/State Order.cy.js</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>create repeating schedule starting today, edit it and delete it</t>
+          <t>create another non repeating schedule and edit and delete it</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>create repeating overlapping schedule, assert conflict message, try again, click cancel, then delete first schedule</t>
+          <t>create repeating schedule starting today, edit it and delete it</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>create repeating, click delete, cancel, then delete just this event</t>
+          <t>create repeating overlapping schedule, assert conflict message, try again, click cancel, then delete first schedule</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5971,27 +5971,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Duplicate Email.cy.js</t>
+          <t>Schedule (LeoBot)(DISABLED).cy</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Duplicate Email</t>
+          <t>Schedule (LeoBot)(DISABLED)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>User tests (Create)</t>
+          <t>create repeating, click delete, cancel, then delete just this event</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Create/Duplicate Email.cy.js</t>
+          <t>test files/Automation Tests/Schedule/Schedule (LeoBot)(DISABLED).cy</t>
         </is>
       </c>
     </row>
@@ -6008,12 +6008,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>create user check duplicate email</t>
+          <t>User tests (Create)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6025,27 +6025,27 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>General.cy.js</t>
+          <t>Duplicate Email.cy.js</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Duplicate Email</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>User tests (Create)</t>
+          <t>create user check duplicate email</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Create/General.cy.js</t>
+          <t>test files/Automation Tests/User/Create/Duplicate Email.cy.js</t>
         </is>
       </c>
     </row>
@@ -6062,12 +6062,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>(Only Non-LB Admin) create user form, test roles selection, cannot select openapi with other roles, does not create user, only checks create user form</t>
+          <t>User tests (Create)</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>create user form, test roles selection, cannot select openapi with other roles, does not create user, only checks create user form</t>
+          <t>(Only Non-LB Admin) create user form, test roles selection, cannot select openapi with other roles, does not create user, only checks create user form</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6106,27 +6106,27 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Illegal Image.cy.js</t>
+          <t>General.cy.js</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Illegal Image</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>User tests (Create)</t>
+          <t>create user form, test roles selection, cannot select openapi with other roles, does not create user, only checks create user form</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Create/Illegal Image.cy.js</t>
+          <t>test files/Automation Tests/User/Create/General.cy.js</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6143,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>check error message for illegal image on create user</t>
+          <t>User tests (Create)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6160,39 +6160,39 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Illegal Inputs.cy.js</t>
+          <t>Illegal Image.cy.js</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Illegal Inputs</t>
+          <t>Illegal Image</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>User tests (Create)</t>
+          <t>check error message for illegal image on create user</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Create/Illegal Inputs.cy.js</t>
+          <t>test files/Automation Tests/User/Create/Illegal Image.cy.js</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Duplicate Email.cy.js</t>
+          <t>Illegal Inputs.cy.js</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Duplicate Email</t>
+          <t>Illegal Inputs</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6202,12 +6202,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>User tests (Update)</t>
+          <t>User tests (Create)</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Update/Duplicate Email.cy.js</t>
+          <t>test files/Automation Tests/User/Create/Illegal Inputs.cy.js</t>
         </is>
       </c>
     </row>
@@ -6224,12 +6224,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>edit user duplicate email</t>
+          <t>User tests (Update)</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6241,27 +6241,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>General.cy.js</t>
+          <t>Duplicate Email.cy.js</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Duplicate Email</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>User tests (Update)</t>
+          <t>edit user duplicate email</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Update/General.cy.js</t>
+          <t>test files/Automation Tests/User/Update/Duplicate Email.cy.js</t>
         </is>
       </c>
     </row>
@@ -6278,12 +6278,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>edit cleaner do not need email</t>
+          <t>User tests (Update)</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>edit super do not need email</t>
+          <t>edit cleaner do not need email</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>(Only LB Admin) edit user, test roles selection, cannot select openapi with other roles</t>
+          <t>edit super do not need email</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>edit user, test roles selection, cannot select openapi with other roles</t>
+          <t>(Only LB Admin) edit user, test roles selection, cannot select openapi with other roles</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6376,27 +6376,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Illegal Image.cy.js</t>
+          <t>General.cy.js</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Illegal Image</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>User tests (Update)</t>
+          <t>edit user, test roles selection, cannot select openapi with other roles</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Update/Illegal Image.cy.js</t>
+          <t>test files/Automation Tests/User/Update/General.cy.js</t>
         </is>
       </c>
     </row>
@@ -6413,12 +6413,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>check error message for illegal image on edit user</t>
+          <t>User tests (Update)</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6430,39 +6430,39 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Illegal Inputs.cy.js</t>
+          <t>Illegal Image.cy.js</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Illegal Inputs</t>
+          <t>Illegal Image</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>User tests (Update)</t>
+          <t>check error message for illegal image on edit user</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/Update/Illegal Inputs.cy.js</t>
+          <t>test files/Automation Tests/User/Update/Illegal Image.cy.js</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Ascending Descending Order.cy.js</t>
+          <t>Illegal Inputs.cy.js</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ascending Descending Order</t>
+          <t>Illegal Inputs</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6472,24 +6472,24 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>User tests (View)</t>
+          <t>User tests (Update)</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/View/Ascending Descending Order.cy.js</t>
+          <t>test files/Automation Tests/User/Update/Illegal Inputs.cy.js</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Columns Headers.cy.js</t>
+          <t>Ascending Descending Order.cy.js</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Columns Headers</t>
+          <t>Ascending Descending Order</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6504,19 +6504,19 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/View/Columns Headers.cy.js</t>
+          <t>test files/Automation Tests/User/View/Ascending Descending Order.cy.js</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>General.cy.js</t>
+          <t>Columns Headers.cy.js</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Columns Headers</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/View/General.cy.js</t>
+          <t>test files/Automation Tests/User/View/Columns Headers.cy.js</t>
         </is>
       </c>
     </row>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>* and * next and prev page and select page</t>
+          <t>User tests (View)</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>(Only Sales, Tech and Super Admin) dropdown menu items check</t>
+          <t>* and * next and prev page and select page</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6592,39 +6592,39 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Search Function.cy.js</t>
+          <t>General.cy.js</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Search Function</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>User tests (View)</t>
+          <t>(Only Sales, Tech and Super Admin) dropdown menu items check</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/View/Search Function.cy.js</t>
+          <t>test files/Automation Tests/User/View/General.cy.js</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Sticky.cy.js</t>
+          <t>Search Function.cy.js</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>Search Function</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/User/View/Sticky.cy.js</t>
+          <t>test files/Automation Tests/User/View/Search Function.cy.js</t>
         </is>
       </c>
     </row>
@@ -6656,12 +6656,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>sticky details, more, search elements</t>
+          <t>User tests (View)</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>not sticky statistics, elements</t>
+          <t>sticky details, more, search elements</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6700,27 +6700,27 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Demo With Lift Support.cy.js</t>
+          <t>Sticky.cy.js</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Demo With Lift Support</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Worksite tests (Create)</t>
+          <t>not sticky statistics, elements</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Create/Demo With Lift Support.cy.js</t>
+          <t>test files/Automation Tests/User/View/Sticky.cy.js</t>
         </is>
       </c>
     </row>
@@ -6737,12 +6737,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Successfully create a normal worksite with lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
+          <t>Worksite tests (Create)</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6754,27 +6754,27 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Demo Without Lift Support.cy.js</t>
+          <t>Demo With Lift Support.cy.js</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Demo Without Lift Support</t>
+          <t>Demo With Lift Support</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Worksite tests (Create)</t>
+          <t>Successfully create a normal worksite with lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Create/Demo Without Lift Support.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Create/Demo With Lift Support.cy.js</t>
         </is>
       </c>
     </row>
@@ -6791,12 +6791,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Successfully create a demo worksite without lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
+          <t>Worksite tests (Create)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6808,27 +6808,27 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Illegal Inputs.cy.js</t>
+          <t>Demo Without Lift Support.cy.js</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Illegal Inputs</t>
+          <t>Demo Without Lift Support</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Worksite tests (Create)</t>
+          <t>Successfully create a demo worksite without lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Create/Illegal Inputs.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Create/Demo Without Lift Support.cy.js</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6845,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Create worksite but with invalid inputs, click "Save" then check the error messages shown</t>
+          <t>Worksite tests (Create)</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Create worksite but with empty inputs, click "Save" then check the error messages shown</t>
+          <t>Create worksite but with invalid inputs, click "Save" then check the error messages shown</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Create worksite but with valid and invalid image files inputs, then check the error messages shown</t>
+          <t>Create worksite but with empty inputs, click "Save" then check the error messages shown</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6916,27 +6916,27 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Input Box Behaviours.cy.js</t>
+          <t>Illegal Inputs.cy.js</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Input Box Behaviours</t>
+          <t>Illegal Inputs</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Worksite tests (Create)</t>
+          <t>Create worksite but with valid and invalid image files inputs, then check the error messages shown</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Create/Input Box Behaviours.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Create/Illegal Inputs.cy.js</t>
         </is>
       </c>
     </row>
@@ -6953,12 +6953,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Validate the input box behaviours</t>
+          <t>Worksite tests (Create)</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6970,27 +6970,27 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Normal With Lift Support.cy.js</t>
+          <t>Input Box Behaviours.cy.js</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Normal With Lift Support</t>
+          <t>Input Box Behaviours</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Worksite tests (Create)</t>
+          <t>Validate the input box behaviours</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Create/Normal With Lift Support.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Create/Input Box Behaviours.cy.js</t>
         </is>
       </c>
     </row>
@@ -7007,12 +7007,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Successfully create a demo worksite with lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
+          <t>Worksite tests (Create)</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7024,27 +7024,27 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Normal Without Lift Support.cy.js</t>
+          <t>Normal With Lift Support.cy.js</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Normal Without Lift Support</t>
+          <t>Normal With Lift Support</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Worksite tests (Create)</t>
+          <t>Successfully create a demo worksite with lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Create/Normal Without Lift Support.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Create/Normal With Lift Support.cy.js</t>
         </is>
       </c>
     </row>
@@ -7061,12 +7061,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Successfully create a normal worksite without lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
+          <t>Worksite tests (Create)</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7078,27 +7078,27 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Delete AutoGen Sites.cy.js</t>
+          <t>Normal Without Lift Support.cy.js</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Delete AutoGen Sites</t>
+          <t>Normal Without Lift Support</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Worksite tests (Delete)</t>
+          <t>Successfully create a normal worksite without lift support, then delete the same worksite afterwords as users with delete worksite rights, then verify the delete worksite api call</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Delete/Delete AutoGen Sites.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Create/Normal Without Lift Support.cy.js</t>
         </is>
       </c>
     </row>
@@ -7115,12 +7115,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>create AutoGenWorksite lifts and demo set false with superadmin for delete the test PART 1</t>
+          <t>Worksite tests (Delete)</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>delete an I am AutoGenWorksite PART2</t>
+          <t>create AutoGenWorksite lifts and demo set false with superadmin for delete the test PART 1</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7159,27 +7159,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Illegal Inputs.cy.js</t>
+          <t>Delete AutoGen Sites.cy.js</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Illegal Inputs</t>
+          <t>Delete AutoGen Sites</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Worksite tests (Update)</t>
+          <t>delete an I am AutoGenWorksite PART2</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Update/Illegal Inputs.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Delete/Delete AutoGen Sites.cy.js</t>
         </is>
       </c>
     </row>
@@ -7196,12 +7196,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Update worksite but with white space as inputs for name, operating hours, state and street address, then check the error messages shown</t>
+          <t>Worksite tests (Update)</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Update worksite but with valid and invalid image files inputs, then check the error messages shown</t>
+          <t>Update worksite but with white space as inputs for name, operating hours, state and street address, then check the error messages shown</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Update worksite but with invalid inputs, click "Save" then check the error messages shown</t>
+          <t>Update worksite but with valid and invalid image files inputs, then check the error messages shown</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7267,27 +7267,27 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Input Box Behaviours.cy.js</t>
+          <t>Illegal Inputs.cy.js</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Input Box Behaviours</t>
+          <t>Illegal Inputs</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Worksite tests (Update)</t>
+          <t>Update worksite but with invalid inputs, click "Save" then check the error messages shown</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/Update/Input Box Behaviours.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Update/Illegal Inputs.cy.js</t>
         </is>
       </c>
     </row>
@@ -7304,12 +7304,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Validate the input box behaviours</t>
+          <t>Worksite tests (Update)</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7321,39 +7321,39 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Ascending Descending Order.cy.js</t>
+          <t>Input Box Behaviours.cy.js</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ascending Descending Order</t>
+          <t>Input Box Behaviours</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Worksite tests (View)</t>
+          <t>Validate the input box behaviours</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/View/Ascending Descending Order.cy.js</t>
+          <t>test files/Automation Tests/Worksite/Update/Input Box Behaviours.cy.js</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Column Headers.cy.js</t>
+          <t>Ascending Descending Order.cy.js</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Column Headers</t>
+          <t>Ascending Descending Order</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7368,19 +7368,19 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/View/Column Headers.cy.js</t>
+          <t>test files/Automation Tests/Worksite/View/Ascending Descending Order.cy.js</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>General.cy.js</t>
+          <t>Column Headers.cy.js</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Column Headers</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/View/General.cy.js</t>
+          <t>test files/Automation Tests/Worksite/View/Column Headers.cy.js</t>
         </is>
       </c>
     </row>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>* and * next and prev page and select page</t>
+          <t>Worksite tests (View)</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>worksite details page, assert titles and api calls</t>
+          <t>* and * next and prev page and select page</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -7456,39 +7456,39 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Search.cy.js</t>
+          <t>General.cy.js</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Worksite tests (View)</t>
+          <t>worksite details page, assert titles and api calls</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/Worksite/View/Search.cy.js</t>
+          <t>test files/Automation Tests/Worksite/View/General.cy.js</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Worksite Map (View).cy.js</t>
+          <t>Search.cy.js</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Worksite Map (View)</t>
+          <t>Search</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7498,12 +7498,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Worksites maps tests</t>
+          <t>Worksite tests (View)</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>test files/Automation Tests/WorksiteMap/Worksite Map (View).cy.js</t>
+          <t>test files/Automation Tests/Worksite/View/Search.cy.js</t>
         </is>
       </c>
     </row>
@@ -7520,12 +7520,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>no create or edit or delete buttons</t>
+          <t>Worksites maps tests</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>view maps</t>
+          <t>no create or edit or delete buttons</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>check download</t>
+          <t>view maps</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7591,27 +7591,27 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Company Tier Info.cy.js</t>
+          <t>Worksite Map (View).cy.js</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Company Tier Info</t>
+          <t>Worksite Map (View)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Companies tier information check for region: </t>
+          <t>check download</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>test files/Smoke Tests/Dashboard Check/Companies/Company Tier Info.cy.js</t>
+          <t>test files/Automation Tests/WorksiteMap/Worksite Map (View).cy.js</t>
         </is>
       </c>
     </row>
@@ -7628,12 +7628,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Check LB companies tier</t>
+          <t xml:space="preserve">Companies tier information check for region: </t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Check MD companies tier</t>
+          <t>Check LB companies tier</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Check LD companies tier</t>
+          <t>Check MD companies tier</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Check CC company tier</t>
+          <t>Check LD companies tier</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7726,27 +7726,27 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Main Section Info.cy.js</t>
+          <t>Company Tier Info.cy.js</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Main Section Info</t>
+          <t>Company Tier Info</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Companies main data check for region: </t>
+          <t>Check CC company tier</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>test files/Smoke Tests/Dashboard Check/Companies/Main Section Info.cy.js</t>
+          <t>test files/Smoke Tests/Dashboard Check/Companies/Company Tier Info.cy.js</t>
         </is>
       </c>
     </row>
@@ -7763,12 +7763,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Check LB companies main data</t>
+          <t xml:space="preserve">Companies main data check for region: </t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Check MD companies main data</t>
+          <t>Check LB companies main data</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Check LD companies main data</t>
+          <t>Check MD companies main data</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Check CC company main data</t>
+          <t>Check LD companies main data</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -7861,27 +7861,27 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Worksites Section Info.cy.js</t>
+          <t>Main Section Info.cy.js</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Worksites Section Info</t>
+          <t>Main Section Info</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Companies worksites check for region: </t>
+          <t>Check CC company main data</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>test files/Smoke Tests/Dashboard Check/Companies/Worksites Section Info.cy.js</t>
+          <t>test files/Smoke Tests/Dashboard Check/Companies/Main Section Info.cy.js</t>
         </is>
       </c>
     </row>
@@ -7898,12 +7898,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Check LB companies worksites data</t>
+          <t xml:space="preserve">Companies worksites check for region: </t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Check MD companies worksites data</t>
+          <t>Check LB companies worksites data</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Check LD companies worksites data</t>
+          <t>Check MD companies worksites data</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Check CC company worksites data</t>
+          <t>Check LD companies worksites data</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -7996,27 +7996,27 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Name Correction.cy.js</t>
+          <t>Worksites Section Info.cy.js</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Name Correction</t>
+          <t>Worksites Section Info</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robot exist in search for region: </t>
+          <t>Check CC company worksites data</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>test files/Smoke Tests/Dashboard Check/Robots/Name Correction.cy.js</t>
+          <t>test files/Smoke Tests/Dashboard Check/Companies/Worksites Section Info.cy.js</t>
         </is>
       </c>
     </row>
@@ -8033,12 +8033,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Search for all test robots on robots page and ensure they exists</t>
+          <t xml:space="preserve">Robot exist in search for region: </t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -8050,27 +8050,27 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>User Roles Correction.cy.js</t>
+          <t>Name Correction.cy.js</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>User Roles Correction</t>
+          <t>Name Correction</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t xml:space="preserve">User role for the desired user exist for region: </t>
+          <t>Search for all test robots on robots page and ensure they exists</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>test files/Smoke Tests/Dashboard Check/Users/User Roles Correction.cy.js</t>
+          <t>test files/Smoke Tests/Dashboard Check/Robots/Name Correction.cy.js</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Search for all users and ensure their roles are correct</t>
+          <t xml:space="preserve">User role for the desired user exist for region: </t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -8104,27 +8104,27 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Worksites Existence.cy.js</t>
+          <t>User Roles Correction.cy.js</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Worksites Existence</t>
+          <t>User Roles Correction</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>it</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Worksites exist in search for region: </t>
+          <t>Search for all users and ensure their roles are correct</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>test files/Smoke Tests/Dashboard Check/Worksites/Worksites Existence.cy.js</t>
+          <t>test files/Smoke Tests/Dashboard Check/Users/User Roles Correction.cy.js</t>
         </is>
       </c>
     </row>
@@ -8141,15 +8141,42 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>context</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
+          <t xml:space="preserve">Worksites exist in search for region: </t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>test files/Smoke Tests/Dashboard Check/Worksites/Worksites Existence.cy.js</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Worksites Existence.cy.js</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Worksites Existence</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
           <t>Search for all worksites and ensure their names are correct</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>test files/Smoke Tests/Dashboard Check/Worksites/Worksites Existence.cy.js</t>
         </is>
